--- a/1. 뉴턴 2법칙/데이터_관성모멘트 포함.xlsx
+++ b/1. 뉴턴 2법칙/데이터_관성모멘트 포함.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Youngjin\Desktop\주영진\2023광주과고\2학기\일반물리학실험1\4주차\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://gsahskr-my.sharepoint.com/personal/22027_gsa_hs_kr/Documents/GSA/4학기/일물실/physics-experiment/1. 뉴턴 2법칙/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DEEA7CD7-9F98-445F-9CBD-3585936C35D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{DEEA7CD7-9F98-445F-9CBD-3585936C35D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04A13690-DE3D-4285-9DC0-F4ECC936A43B}"/>
   <bookViews>
-    <workbookView xWindow="-48" yWindow="-48" windowWidth="23136" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4212" yWindow="2820" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="55">
   <si>
     <t>블루 카트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,10 +193,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.0403</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>μ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,6 +246,34 @@
   </si>
   <si>
     <t>평균</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이거 계산은 카트를 한 번 밀었을 때 그 뒤로 계속 유지되는 가속도를 봄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,7,8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12,13,14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,16,17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -636,8 +671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -671,10 +706,10 @@
         <v>8</v>
       </c>
       <c r="K1" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" t="s">
         <v>45</v>
-      </c>
-      <c r="L1" t="s">
-        <v>46</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>32</v>
@@ -683,7 +718,7 @@
         <v>33</v>
       </c>
       <c r="P1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.4">
@@ -720,23 +755,58 @@
       <c r="L2">
         <v>0.05</v>
       </c>
-      <c r="N2" s="6" t="s">
-        <v>34</v>
+      <c r="N2" s="6">
+        <v>4.0300000000000002E-2</v>
       </c>
       <c r="O2">
         <v>9.8066499999999994</v>
       </c>
       <c r="P2">
         <f>N2/O2</f>
-        <v>-4.1094563383010513E-3</v>
+        <v>4.1094563383010513E-3</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="B3">
+        <f>B2/1000</f>
+        <v>0.25101000000000001</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:I3" si="0">C2/1000</f>
+        <v>9.9700000000000014E-3</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>9.9499999999999988E-3</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>9.9700000000000014E-3</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="0"/>
+        <v>2.0199999999999999E-2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.24822999999999998</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0.25284000000000001</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="0"/>
+        <v>5.1700000000000001E-3</v>
+      </c>
       <c r="K3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L3" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="N3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.4">
@@ -749,6 +819,9 @@
       <c r="C4" t="s">
         <v>17</v>
       </c>
+      <c r="D4" t="s">
+        <v>49</v>
+      </c>
       <c r="K4">
         <f>$K$2/1000</f>
         <v>1.55E-2</v>
@@ -765,6 +838,9 @@
       <c r="C5" t="s">
         <v>18</v>
       </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
@@ -773,6 +849,9 @@
       <c r="C6" t="s">
         <v>19</v>
       </c>
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B7" t="s">
@@ -781,6 +860,9 @@
       <c r="C7" t="s">
         <v>20</v>
       </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B8" t="s">
@@ -789,6 +871,9 @@
       <c r="C8" t="s">
         <v>21</v>
       </c>
+      <c r="D8" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -800,6 +885,9 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
@@ -878,30 +966,30 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>39</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>41</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>42</v>
-      </c>
-      <c r="H21" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
@@ -936,7 +1024,7 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" ref="B23:B24" si="0">$A23/1000</f>
+        <f t="shared" ref="B23:B24" si="1">$A23/1000</f>
         <v>2.1000000000000001E-2</v>
       </c>
       <c r="C23">
@@ -946,15 +1034,15 @@
         <v>0.33</v>
       </c>
       <c r="E23">
-        <f t="shared" ref="E23:E24" si="1">2*3.141592/$C23</f>
+        <f t="shared" ref="E23:E24" si="2">2*3.141592/$C23</f>
         <v>24.736944881889766</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F25" si="2">2*3.141592/$D23</f>
+        <f t="shared" ref="F23:F24" si="3">2*3.141592/$D23</f>
         <v>19.039951515151515</v>
       </c>
       <c r="H23">
-        <f t="shared" ref="H23:H24" si="3">($L$4*$F23/($E23-$F23))*($B23^2+$K$4^2/12)</f>
+        <f t="shared" ref="H23:H24" si="4">($L$4*$F23/($E23-$F23))*($B23^2+$K$4^2/12)</f>
         <v>7.7039007675438569E-8</v>
       </c>
     </row>
@@ -963,7 +1051,7 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="C24">
@@ -973,21 +1061,21 @@
         <v>0.252</v>
       </c>
       <c r="E24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.104871287128713</v>
       </c>
       <c r="F24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>24.933269841269844</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>1.0181220833333339E-7</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="G25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H25">
         <f>AVERAGE(H22:H24)</f>
@@ -1002,6 +1090,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="문서" ma:contentTypeID="0x010100CF8A46F2FBA51B49B57A1DF22A0E08CF" ma:contentTypeVersion="10" ma:contentTypeDescription="새 문서를 만듭니다." ma:contentTypeScope="" ma:versionID="35983243bb9d7f8bc8d123dcbbda7e67">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="29a2ce2a-36ff-4a3c-b819-416cb2c6b601" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4023a38d8d0e0d8f28568dd93bf23c8b" ns3:_="">
     <xsd:import namespace="29a2ce2a-36ff-4a3c-b819-416cb2c6b601"/>
@@ -1183,16 +1280,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45DC8D23-E432-40D3-836C-E50966ABD94D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFAE736B-5412-408E-A370-DCCF34F3EB2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1208,12 +1304,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45DC8D23-E432-40D3-836C-E50966ABD94D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>